--- a/xlsx/北冰洋_intext.xlsx
+++ b/xlsx/北冰洋_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="785">
   <si>
     <t>北冰洋</t>
   </si>
@@ -29,7 +29,7 @@
     <t>太平洋</t>
   </si>
   <si>
-    <t>政策_政策_美國_北冰洋</t>
+    <t>政策_政策_美国_北冰洋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%9C%88</t>
   </si>
   <si>
-    <t>北極圈</t>
+    <t>北极圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E7%82%B9</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B5%B7%E9%81%93%E6%B8%AC%E9%87%8F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際海道測量組織</t>
+    <t>国际海道测量组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>海洋學</t>
+    <t>海洋学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E9%96%93%E6%B5%B7</t>
   </si>
   <si>
-    <t>陸間海</t>
+    <t>陆间海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8F%A3%E6%B9%BE</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>巴倫支海</t>
+    <t>巴伦支海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>東西伯利亞海</t>
+    <t>东西伯利亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E6%B5%B7</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E9%81%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>哈得遜灣</t>
+    <t>哈得逊湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E9%80%8A%E6%B5%B7%E5%B3%A1</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
   </si>
   <si>
-    <t>巴芬灣</t>
+    <t>巴芬湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E6%B5%B7</t>
@@ -185,13 +185,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E9%97%B4%E6%B5%B7</t>
   </si>
   <si>
-    <t>陆间海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E9%81%94%E5%B0%BC%E8%99%9F</t>
   </si>
   <si>
-    <t>鐵達尼號</t>
+    <t>铁达尼号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B1%B1</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>格陵蘭島</t>
+    <t>格陵兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%A5%BF%E4%BA%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>皮西亞斯</t>
+    <t>皮西亚斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%8B%92</t>
@@ -335,9 +332,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E5%9C%88</t>
   </si>
   <si>
-    <t>北极圈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E5%86%B0</t>
   </si>
   <si>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
@@ -383,15 +377,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>歐洲環境衛星</t>
+    <t>欧洲环境卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%86%BB%E5%86%B0</t>
   </si>
   <si>
@@ -401,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國太空總署</t>
+    <t>美国太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B6%BA</t>
   </si>
   <si>
-    <t>海嶺</t>
+    <t>海岭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%92%99%E8%AF%BA%E7%B4%A2%E5%A4%AB%E6%B5%B7%E5%B2%AD</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>新西伯利亞群島</t>
+    <t>新西伯利亚群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E6%A0%BC%E5%B0%94%E5%B2%9B</t>
@@ -431,9 +422,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0%E5%B2%9B</t>
   </si>
   <si>
-    <t>格陵兰岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E6%96%AF%E7%B1%B3%E5%B0%94%E5%B2%9B</t>
   </si>
   <si>
@@ -467,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>太陽輻射</t>
+    <t>太阳辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A3%8E%E9%9B%AA</t>
@@ -491,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%A3%93%E6%A7%BD</t>
   </si>
   <si>
-    <t>低壓槽</t>
+    <t>低压槽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>港灣</t>
+    <t>港湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%BE%85_(%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴羅 (阿拉斯加州)</t>
+    <t>巴罗 (阿拉斯加州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Prudhoe_Bay,_Alaska</t>
@@ -539,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%B4%8D%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
-    <t>努納福特</t>
+    <t>努纳福特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%9C%B0%E5%8C%BA_(%E5%8A%A0%E6%8B%BF%E5%A4%A7)</t>
@@ -575,31 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E5%BE%B7_(%E6%8C%AA%E5%A8%81)</t>
   </si>
   <si>
-    <t>瓦爾德 (挪威)</t>
+    <t>瓦尔德 (挪威)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>弗拉姆海峽</t>
+    <t>弗拉姆海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B7%B4%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯瓦巴群島</t>
+    <t>斯瓦巴群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E4%BC%8A%E7%88%BE%E5%9F%8E</t>
   </si>
   <si>
-    <t>朗伊爾城</t>
+    <t>朗伊尔城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E6%9B%BC%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>摩爾曼斯克</t>
+    <t>摩尔曼斯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B1%89%E6%A0%BC%E5%B0%94%E6%96%AF%E5%85%8B</t>
@@ -611,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%B2%9D%E7%89%B9%E5%8D%97%E5%90%89</t>
   </si>
   <si>
-    <t>拉貝特南吉</t>
+    <t>拉贝特南吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%88%97%E5%93%88%E5%B0%94%E5%BE%B7</t>
@@ -629,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%8A%A0%E7%88%BE%E5%8D%A1</t>
   </si>
   <si>
-    <t>伊加爾卡</t>
+    <t>伊加尔卡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dikson_(urban-type_settlement)</t>
@@ -647,9 +635,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B5%B7</t>
   </si>
   <si>
-    <t>东西伯利亚海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E9%9F%A6%E5%85%8B</t>
   </si>
   <si>
@@ -659,19 +644,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5</t>
   </si>
   <si>
-    <t>北極</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E7%86%8A</t>
   </si>
   <si>
-    <t>北極熊</t>
+    <t>北极熊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%B1%A1</t>
@@ -683,19 +665,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AF%A8</t>
   </si>
   <si>
-    <t>鯨</t>
+    <t>鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB</t>
   </si>
   <si>
-    <t>生態系</t>
+    <t>生态系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E9%AC%83%E6%B0%B4%E6%AF%8D</t>
   </si>
   <si>
-    <t>獅鬃水母</t>
+    <t>狮鬃水母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A6%E9%B3%9A%E7%A7%91</t>
@@ -725,31 +707,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E6%97%97</t>
@@ -761,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%A4</t>
   </si>
   <si>
-    <t>臭氧層</t>
+    <t>臭氧层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%85%A7%E7%8E%87</t>
@@ -785,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E9%B9%BD%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>溫鹽環流</t>
+    <t>温盐环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Great_Arctic_Cyclone_of_2012</t>
@@ -803,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9B%B4%E4%BA%9B%E6%B2%B3</t>
   </si>
   <si>
-    <t>馬更些河</t>
+    <t>马更些河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2</t>
@@ -833,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%B0%E5%B2%9B</t>
@@ -863,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E8%88%AA%E9%81%93</t>
   </si>
   <si>
-    <t>東北航道</t>
+    <t>东北航道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E8%88%AA%E9%81%93</t>
@@ -881,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E7%94%B2%E7%83%B7%E9%87%8B%E5%87%BA</t>
   </si>
   <si>
-    <t>北極甲烷釋出</t>
+    <t>北极甲烷释出</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E6%B0%A3%E5%80%99%E8%A1%9D%E6%93%8A%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>北極氣候衝擊評估</t>
+    <t>北极气候冲击评估</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Arctic_Science_Committee</t>
@@ -989,19 +971,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -1109,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1199,7 +1181,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1229,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -1253,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1265,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1289,19 +1271,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1319,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1337,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1355,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1385,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1403,19 +1385,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1439,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1493,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E4%BB%80%E7%B6%AD%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>布爾什維克島</t>
+    <t>布尔什维克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E5%B2%9B</t>
@@ -1505,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6</t>
   </si>
   <si>
-    <t>揚馬延</t>
+    <t>扬马延</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8C%B9%E6%AC%A1%E5%8D%91%E5%B0%94%E6%A0%B9%E5%B2%9B</t>
@@ -1523,19 +1505,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴倫支島</t>
+    <t>巴伦支岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E7%8E%8B%E5%9C%B0%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>卡爾王地群島</t>
+    <t>卡尔王地群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B3%B6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>七島群島</t>
+    <t>七岛群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%85%8B%E6%96%AF%E5%B2%9B</t>
@@ -1553,19 +1535,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E5%87%A1%E6%9D%BE%E5%B3%B6</t>
   </si>
   <si>
-    <t>斯特凡松島</t>
+    <t>斯特凡松岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87%E5%B3%B6</t>
   </si>
   <si>
-    <t>德文島</t>
+    <t>德文岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴芬島</t>
+    <t>巴芬岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E5%A5%B3%E7%8E%8B%E7%BE%A4%E5%B2%9B</t>
@@ -1577,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8B%92%E5%A4%AB%E9%9D%88%E5%85%A7%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>埃勒夫靈內斯島</t>
+    <t>埃勒夫灵内斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%E7%8E%8B%E5%AD%90%E5%B2%9B</t>
@@ -1607,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
   </si>
   <si>
-    <t>阿蒙森灣</t>
+    <t>阿蒙森湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%A1</t>
@@ -1625,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>布西亞灣</t>
+    <t>布西亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>卡拉海峽</t>
+    <t>卡拉海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E6%B5%B7</t>
@@ -1655,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
   </si>
   <si>
-    <t>旺德爾海</t>
+    <t>旺德尔海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BE%97%E9%87%8C%E4%BA%9A%E6%B5%B7</t>
@@ -1703,13 +1685,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>比斯開灣</t>
+    <t>比斯开湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>波的尼亞灣</t>
+    <t>波的尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
@@ -1745,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>凱爾特海</t>
+    <t>凯尔特海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
@@ -1775,13 +1757,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
   </si>
   <si>
-    <t>芬蘭灣</t>
+    <t>芬兰湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
   </si>
   <si>
-    <t>利翁灣</t>
+    <t>利翁湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
@@ -1805,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>聖羅倫斯灣</t>
+    <t>圣罗伦斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
@@ -1823,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>詹姆斯灣</t>
+    <t>詹姆斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -1835,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛爾蘭海</t>
+    <t>爱尔兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>伊爾明厄海</t>
+    <t>伊尔明厄海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
@@ -1859,13 +1841,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利比亞海</t>
+    <t>利比亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
@@ -1883,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
   </si>
   <si>
-    <t>米爾托翁海</t>
+    <t>米尔托翁海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
@@ -1901,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
@@ -1913,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>奧蘭海</t>
+    <t>奥兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
   </si>
   <si>
-    <t>亞速海</t>
+    <t>亚速海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
@@ -1961,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
+    <t>孟加拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
@@ -1985,13 +1967,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
   </si>
   <si>
-    <t>嘠奇灣</t>
+    <t>嘠奇湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>阿曼灣</t>
+    <t>阿曼湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
@@ -2093,19 +2075,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>台灣海峽</t>
+    <t>台湾海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>巴士海峽</t>
+    <t>巴士海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>塞蘭海</t>
+    <t>塞兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
@@ -2147,19 +2129,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>卡奔塔利亞灣</t>
+    <t>卡奔塔利亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
   </si>
   <si>
-    <t>豐塞卡灣</t>
+    <t>丰塞卡湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>泰國灣</t>
+    <t>泰国湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
@@ -2171,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
   </si>
   <si>
-    <t>哈馬黑拉海</t>
+    <t>哈马黑拉海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
@@ -2183,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
   </si>
   <si>
-    <t>科羅海</t>
+    <t>科罗海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
@@ -2195,13 +2177,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
   </si>
   <si>
-    <t>馬魯古海</t>
+    <t>马鲁古海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
   </si>
   <si>
-    <t>莫羅灣</t>
+    <t>莫罗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
@@ -2237,13 +2219,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
   </si>
   <si>
-    <t>瀨戶內海</t>
+    <t>濑户内海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
   </si>
   <si>
-    <t>錫布延海</t>
+    <t>锡布延海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
@@ -2297,19 +2279,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
   </si>
   <si>
-    <t>英聯邦海</t>
+    <t>英联邦海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>宇航員海</t>
+    <t>宇航员海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>戴維斯海</t>
+    <t>戴维斯海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
@@ -2333,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
   </si>
   <si>
-    <t>里瑟爾-拉森海</t>
+    <t>里瑟尔-拉森海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
@@ -2369,19 +2351,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>鹹海</t>
+    <t>咸海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>裡海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
   </si>
   <si>
-    <t>索爾頓湖</t>
+    <t>索尔顿湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
@@ -3541,7 +3523,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3567,10 +3549,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3596,10 +3578,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -3625,10 +3607,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -3654,10 +3636,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3683,10 +3665,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -3712,10 +3694,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3741,10 +3723,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3770,10 +3752,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>12</v>
@@ -3799,10 +3781,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>13</v>
@@ -3828,10 +3810,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3857,10 +3839,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3886,10 +3868,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3915,10 +3897,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
         <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>60</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3944,10 +3926,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -3973,10 +3955,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -4002,10 +3984,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4031,10 +4013,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4060,10 +4042,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4089,10 +4071,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4118,10 +4100,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4147,10 +4129,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4176,10 +4158,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4205,10 +4187,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4234,10 +4216,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4263,10 +4245,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4292,10 +4274,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4321,10 +4303,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -4350,10 +4332,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4379,10 +4361,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4408,10 +4390,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4437,10 +4419,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4466,10 +4448,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4495,10 +4477,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4524,10 +4506,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4553,10 +4535,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4582,10 +4564,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4611,10 +4593,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4640,10 +4622,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>7</v>
@@ -4669,10 +4651,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4698,10 +4680,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4727,10 +4709,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4756,10 +4738,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4785,10 +4767,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4814,10 +4796,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4843,10 +4825,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4872,10 +4854,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4901,10 +4883,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4930,10 +4912,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4959,10 +4941,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4988,10 +4970,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -5017,10 +4999,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -5046,10 +5028,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5075,10 +5057,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5104,10 +5086,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5133,10 +5115,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5162,10 +5144,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>7</v>
@@ -5191,10 +5173,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5220,10 +5202,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5249,10 +5231,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5278,10 +5260,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5307,10 +5289,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5336,10 +5318,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5365,10 +5347,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5394,10 +5376,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5423,10 +5405,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5452,10 +5434,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5481,10 +5463,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5510,10 +5492,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5539,10 +5521,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5568,10 +5550,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5597,10 +5579,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5626,10 +5608,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5655,10 +5637,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5684,10 +5666,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5713,10 +5695,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5742,10 +5724,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5771,10 +5753,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5800,10 +5782,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5829,10 +5811,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5858,10 +5840,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="G108" t="n">
         <v>24</v>
@@ -5887,10 +5869,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5916,10 +5898,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5945,10 +5927,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5974,10 +5956,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6003,10 +5985,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6032,10 +6014,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6061,10 +6043,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6090,10 +6072,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -6119,10 +6101,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6148,10 +6130,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6177,10 +6159,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -6206,10 +6188,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6235,10 +6217,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6264,10 +6246,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6293,10 +6275,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>7</v>
@@ -6322,10 +6304,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6351,10 +6333,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6380,10 +6362,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6409,10 +6391,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6438,10 +6420,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6467,10 +6449,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6496,10 +6478,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>13</v>
@@ -6525,10 +6507,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6554,10 +6536,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6583,10 +6565,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6612,10 +6594,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6641,10 +6623,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6670,10 +6652,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6699,10 +6681,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6728,10 +6710,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6757,10 +6739,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6786,10 +6768,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6815,10 +6797,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6844,10 +6826,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6873,10 +6855,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6902,10 +6884,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6931,10 +6913,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6960,10 +6942,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6989,10 +6971,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7018,10 +7000,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7047,10 +7029,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7076,10 +7058,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>10</v>
@@ -7105,10 +7087,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7134,10 +7116,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7163,10 +7145,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7192,10 +7174,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7221,10 +7203,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7250,10 +7232,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7279,10 +7261,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7308,10 +7290,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7337,10 +7319,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7366,10 +7348,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7395,10 +7377,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7424,10 +7406,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7453,10 +7435,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7482,10 +7464,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7511,10 +7493,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7540,10 +7522,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>13</v>
@@ -7569,10 +7551,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7598,10 +7580,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7627,10 +7609,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7656,10 +7638,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7685,10 +7667,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7714,10 +7696,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7743,10 +7725,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7772,10 +7754,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7801,10 +7783,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7830,10 +7812,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7859,10 +7841,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7888,10 +7870,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7917,10 +7899,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" t="s">
         <v>97</v>
-      </c>
-      <c r="F179" t="s">
-        <v>98</v>
       </c>
       <c r="G179" t="n">
         <v>4</v>
@@ -7946,10 +7928,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7975,10 +7957,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8004,10 +7986,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8033,10 +8015,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8062,10 +8044,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8091,10 +8073,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8120,10 +8102,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8149,10 +8131,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8178,10 +8160,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>12</v>
@@ -8207,10 +8189,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8236,10 +8218,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8265,10 +8247,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8294,10 +8276,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8323,10 +8305,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8352,10 +8334,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8381,10 +8363,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8410,10 +8392,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8439,10 +8421,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8468,10 +8450,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8497,10 +8479,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8526,10 +8508,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8555,10 +8537,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8584,10 +8566,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8613,10 +8595,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8642,10 +8624,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8671,10 +8653,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8700,10 +8682,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8729,10 +8711,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8758,10 +8740,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -8787,10 +8769,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8816,10 +8798,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8845,10 +8827,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8874,10 +8856,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8903,10 +8885,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8932,10 +8914,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8961,10 +8943,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8990,10 +8972,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -9019,10 +9001,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F217" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9048,10 +9030,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>10</v>
@@ -9077,10 +9059,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9106,10 +9088,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9135,10 +9117,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9164,10 +9146,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9193,10 +9175,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9222,10 +9204,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9251,10 +9233,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9280,10 +9262,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9309,10 +9291,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>8</v>
@@ -9338,10 +9320,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9367,10 +9349,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9396,10 +9378,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9425,10 +9407,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9454,10 +9436,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9483,10 +9465,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9512,10 +9494,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F234" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9541,10 +9523,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9570,10 +9552,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9599,10 +9581,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9628,10 +9610,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9657,10 +9639,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9686,10 +9668,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9715,10 +9697,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9744,10 +9726,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9773,10 +9755,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9802,10 +9784,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9831,10 +9813,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9860,10 +9842,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9889,10 +9871,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9918,10 +9900,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9947,10 +9929,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9976,10 +9958,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10005,10 +9987,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10034,10 +10016,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10063,10 +10045,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10092,10 +10074,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10121,10 +10103,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10150,10 +10132,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10179,10 +10161,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10208,10 +10190,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10237,10 +10219,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10266,10 +10248,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10295,10 +10277,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>66</v>
+      </c>
+      <c r="F261" t="s">
         <v>67</v>
-      </c>
-      <c r="F261" t="s">
-        <v>68</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10324,10 +10306,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10353,10 +10335,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10382,10 +10364,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10411,10 +10393,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10440,10 +10422,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10469,10 +10451,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10498,10 +10480,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10527,10 +10509,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10556,10 +10538,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10585,10 +10567,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10614,10 +10596,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10643,10 +10625,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10672,10 +10654,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10701,10 +10683,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10759,10 +10741,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10788,10 +10770,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10817,10 +10799,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10846,10 +10828,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10875,10 +10857,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10904,10 +10886,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10933,10 +10915,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10962,10 +10944,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10991,10 +10973,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11020,10 +11002,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11049,10 +11031,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11078,10 +11060,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11107,10 +11089,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11136,10 +11118,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11165,10 +11147,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11194,10 +11176,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11223,10 +11205,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11252,10 +11234,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11281,10 +11263,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11310,10 +11292,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11339,10 +11321,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11368,10 +11350,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11397,10 +11379,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11426,10 +11408,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11455,10 +11437,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11484,10 +11466,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11513,10 +11495,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11542,10 +11524,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11571,10 +11553,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11600,10 +11582,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11629,10 +11611,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11658,10 +11640,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11687,10 +11669,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11716,10 +11698,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11745,10 +11727,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11774,10 +11756,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11803,10 +11785,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11832,10 +11814,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11861,10 +11843,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11890,10 +11872,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11919,10 +11901,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11948,10 +11930,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11977,10 +11959,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>3</v>
@@ -12006,10 +11988,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12035,10 +12017,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12064,10 +12046,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12093,10 +12075,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12122,10 +12104,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12151,10 +12133,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12180,10 +12162,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12209,10 +12191,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12238,10 +12220,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12267,10 +12249,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12296,10 +12278,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12325,10 +12307,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12354,10 +12336,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12383,10 +12365,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12412,10 +12394,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12441,10 +12423,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12470,10 +12452,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12499,10 +12481,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12528,10 +12510,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12557,10 +12539,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12586,10 +12568,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12615,10 +12597,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12644,10 +12626,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12673,10 +12655,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12702,10 +12684,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12731,10 +12713,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12760,10 +12742,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12789,10 +12771,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12818,10 +12800,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12847,10 +12829,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -12876,10 +12858,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12905,10 +12887,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12934,10 +12916,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12963,10 +12945,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12992,10 +12974,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13021,10 +13003,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13050,10 +13032,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13079,10 +13061,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13108,10 +13090,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13137,10 +13119,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13166,10 +13148,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13195,10 +13177,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13224,10 +13206,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13253,10 +13235,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13282,10 +13264,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13311,10 +13293,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13340,10 +13322,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13369,10 +13351,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13398,10 +13380,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13427,10 +13409,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13456,10 +13438,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13485,10 +13467,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13514,10 +13496,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13543,10 +13525,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13572,10 +13554,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13601,10 +13583,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13630,10 +13612,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13659,10 +13641,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13688,10 +13670,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13717,10 +13699,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13746,10 +13728,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13775,10 +13757,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13804,10 +13786,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13833,10 +13815,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13862,10 +13844,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13891,10 +13873,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13920,10 +13902,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13949,10 +13931,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13978,10 +13960,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14007,10 +13989,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14036,10 +14018,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14065,10 +14047,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14094,10 +14076,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14123,10 +14105,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14152,10 +14134,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14181,10 +14163,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14210,10 +14192,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14239,10 +14221,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14268,10 +14250,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14297,10 +14279,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14326,10 +14308,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14355,10 +14337,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14384,10 +14366,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14413,10 +14395,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14442,10 +14424,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F404" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
